--- a/Files.xlsx
+++ b/Files.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="326">
   <si>
     <t>File Name</t>
   </si>
@@ -702,21 +702,6 @@
     <t>Sony - Impacts - Metal Box Soft 03</t>
   </si>
   <si>
-    <t>Freesound - dheming - Wood_hits_01</t>
-  </si>
-  <si>
-    <t>Freesound - AlienXXX - Pan_8</t>
-  </si>
-  <si>
-    <t>Freesound - AlienXXX - Pan_9</t>
-  </si>
-  <si>
-    <t>Freesound - AlienXXX - Pan_10</t>
-  </si>
-  <si>
-    <t>Freesound - AlienXXX - Pan_11</t>
-  </si>
-  <si>
     <t>Sony - Impacts - Wood Impacts Multiple</t>
   </si>
   <si>
@@ -726,12 +711,6 @@
     <t>BBC - Footsteps 1 - 07 Pavement Walking Woman</t>
   </si>
   <si>
-    <t>BBC - Footsteps 1 - 21 Pavement Running Man</t>
-  </si>
-  <si>
-    <t>BBC - Footsteps 1 - 01 Pavement Walking Man</t>
-  </si>
-  <si>
     <t>Gives extra click to the footsteps - Makes the concrete surface more apparent</t>
   </si>
   <si>
@@ -741,30 +720,15 @@
     <t>Soldier running (velocity higher than 0.46) on concrete</t>
   </si>
   <si>
-    <t>Sony - Footsteps - Running Dirt Multiple</t>
-  </si>
-  <si>
-    <t>Sony - Footsteps - Walking Dirt Multiple</t>
-  </si>
-  <si>
     <t>BBC - Footsteps 2 - 82 Metal Stairs</t>
   </si>
   <si>
     <t>BBC - Footsteps 1 - 76 Wood Walking Woman</t>
   </si>
   <si>
-    <t>BBC - Footsteps 1 - 86 Wood Running Man</t>
-  </si>
-  <si>
-    <t>BBC - Footsteps 1 - 71 Wood Walking Man</t>
-  </si>
-  <si>
     <t>Sony - Footsteps - Snow Multiple</t>
   </si>
   <si>
-    <t>BBC - Water - 14 Person Thrashing</t>
-  </si>
-  <si>
     <t>LSF - Impact - Tarmac 03</t>
   </si>
   <si>
@@ -786,12 +750,6 @@
     <t>LSF - Impact - Dirt/Sand 08</t>
   </si>
   <si>
-    <t>LSF - Impact - Glass 06</t>
-  </si>
-  <si>
-    <t>LSF - Impact - Glass 08</t>
-  </si>
-  <si>
     <t>LSF - Impact - Metal 02</t>
   </si>
   <si>
@@ -816,9 +774,6 @@
     <t>Sony - Ricochets/Hits/Whiz Bys - Arrow Into Wood 01</t>
   </si>
   <si>
-    <t>Sony - Explosions - Explosion Small - Added Debris_Sweetner_Rubble</t>
-  </si>
-  <si>
     <t>Freesound - m_O_m - mortar_fire_shot_warfare_explosion_04.wav</t>
   </si>
   <si>
@@ -834,18 +789,9 @@
     <t>Sony - Natural Elements - Waterfall Medium</t>
   </si>
   <si>
-    <t>BBC - Water - 02 River Rapids</t>
-  </si>
-  <si>
     <t>BBC - Water - 04 Waterfall</t>
   </si>
   <si>
-    <t>Sony - Natural Elements - Splash Hard 01</t>
-  </si>
-  <si>
-    <t>Sony - Natural Elements - Splash Hard 02</t>
-  </si>
-  <si>
     <t>LSF - Ambient - Waterfall Small</t>
   </si>
   <si>
@@ -952,6 +898,105 @@
   </si>
   <si>
     <t>Duration (Seconds)</t>
+  </si>
+  <si>
+    <t>22050Hz</t>
+  </si>
+  <si>
+    <t>Sony - Impact - Glass 06</t>
+  </si>
+  <si>
+    <t>Sony - Impact - Glass 08</t>
+  </si>
+  <si>
+    <t>32000Hz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stalker Complete 2009 Mod </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stalker </t>
+  </si>
+  <si>
+    <t>Written Permission gained from authors</t>
+  </si>
+  <si>
+    <t>Stalker - Footsteps - Concrete Running</t>
+  </si>
+  <si>
+    <t>Stalker - Footsteps - Concrete Walking</t>
+  </si>
+  <si>
+    <t>Stalker - Footsteps - Dirt Running</t>
+  </si>
+  <si>
+    <t>Stalker - Footsteps - Dirt Walking</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Water Wading</t>
+  </si>
+  <si>
+    <t>Stalker - Footsteps - Wood Running</t>
+  </si>
+  <si>
+    <t>Stalker - Footsteps - Wood Walking</t>
+  </si>
+  <si>
+    <t>Stalker - Weapons - GrenadeExplosion</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Splash Hard 01</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Splash Hard 02</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Jump 01</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Jump 02</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Stream 01</t>
+  </si>
+  <si>
+    <t>Stalker - Water - Stream 02</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - MetalPot 01</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - MetalPot 02</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - MetalPot 03</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - MetalPot 04</t>
+  </si>
+  <si>
+    <t>LSF - Impacts - Wood01</t>
+  </si>
+  <si>
+    <t>LSF - Impacts - Wood02</t>
+  </si>
+  <si>
+    <t>LSF - Impacts - Wood03</t>
+  </si>
+  <si>
+    <t>LSF - Impacts - Wood04</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - WoodGeneric 01</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - WoodGeneric 02</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - WoodGeneric 03</t>
+  </si>
+  <si>
+    <t>Stalker - Impacts - WoodGeneric 04</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1052,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1079,7 +1132,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1112,6 +1165,10 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1144,6 +1201,10 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1473,10 +1534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1487,9 +1548,10 @@
     <col min="8" max="8" width="75.6640625" customWidth="1"/>
     <col min="11" max="11" width="36" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1521,7 +1583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1553,7 +1615,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1585,7 +1647,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1679,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1649,7 +1711,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1674,8 +1736,17 @@
       <c r="H6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1701,7 +1772,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1730,7 +1801,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1756,7 +1827,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1853,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1808,7 +1879,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1834,7 +1905,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1860,7 +1931,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1957,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2443,7 +2514,7 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -2455,7 +2526,7 @@
         <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2469,7 +2540,7 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E39" t="s">
         <v>21</v>
@@ -2481,7 +2552,7 @@
         <v>215</v>
       </c>
       <c r="H39" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2495,7 +2566,7 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -2507,7 +2578,7 @@
         <v>215</v>
       </c>
       <c r="H40" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2533,7 +2604,7 @@
         <v>215</v>
       </c>
       <c r="H41" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2559,7 +2630,7 @@
         <v>215</v>
       </c>
       <c r="H42" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2585,7 +2656,7 @@
         <v>215</v>
       </c>
       <c r="H43" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2611,7 +2682,7 @@
         <v>215</v>
       </c>
       <c r="H44" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2637,7 +2708,7 @@
         <v>217</v>
       </c>
       <c r="H45" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2663,7 +2734,7 @@
         <v>217</v>
       </c>
       <c r="H46" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2689,7 +2760,7 @@
         <v>217</v>
       </c>
       <c r="H47" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2715,7 +2786,7 @@
         <v>217</v>
       </c>
       <c r="H48" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2741,7 +2812,7 @@
         <v>217</v>
       </c>
       <c r="H49" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2767,7 +2838,7 @@
         <v>217</v>
       </c>
       <c r="H50" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2793,7 +2864,7 @@
         <v>218</v>
       </c>
       <c r="H51" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2819,7 +2890,7 @@
         <v>219</v>
       </c>
       <c r="H52" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2845,7 +2916,7 @@
         <v>220</v>
       </c>
       <c r="H53" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2871,7 +2942,7 @@
         <v>221</v>
       </c>
       <c r="H54" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2897,7 +2968,7 @@
         <v>222</v>
       </c>
       <c r="H55" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2923,7 +2994,7 @@
         <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2949,7 +3020,7 @@
         <v>224</v>
       </c>
       <c r="H57" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2975,7 +3046,7 @@
         <v>225</v>
       </c>
       <c r="H58" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3001,7 +3072,7 @@
         <v>226</v>
       </c>
       <c r="H59" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3015,7 +3086,7 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E60" t="s">
         <v>21</v>
@@ -3024,10 +3095,10 @@
         <v>0.5</v>
       </c>
       <c r="G60" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="H60" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3041,7 +3112,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E61" t="s">
         <v>21</v>
@@ -3050,10 +3121,10 @@
         <v>0.7</v>
       </c>
       <c r="G61" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="H61" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3067,7 +3138,7 @@
         <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E62" t="s">
         <v>21</v>
@@ -3076,10 +3147,10 @@
         <v>0.65</v>
       </c>
       <c r="G62" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="H62" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3093,7 +3164,7 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -3102,10 +3173,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G63" t="s">
-        <v>227</v>
+        <v>325</v>
       </c>
       <c r="H63" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3119,7 +3190,7 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -3128,10 +3199,10 @@
         <v>0.62</v>
       </c>
       <c r="G64" t="s">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c r="H64" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3145,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -3154,10 +3225,10 @@
         <v>0.71</v>
       </c>
       <c r="G65" t="s">
-        <v>227</v>
+        <v>319</v>
       </c>
       <c r="H65" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3171,7 +3242,7 @@
         <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -3180,10 +3251,10 @@
         <v>0.64</v>
       </c>
       <c r="G66" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="H66" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3197,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -3206,10 +3277,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G67" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="H67" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3223,7 +3294,7 @@
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
@@ -3232,10 +3303,10 @@
         <v>0.76</v>
       </c>
       <c r="G68" t="s">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="H68" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3249,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
@@ -3258,10 +3329,10 @@
         <v>0.78</v>
       </c>
       <c r="G69" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="H69" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3275,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E70" t="s">
         <v>21</v>
@@ -3284,10 +3355,10 @@
         <v>0.71</v>
       </c>
       <c r="G70" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="H70" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3301,7 +3372,7 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>296</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -3310,10 +3381,10 @@
         <v>0.69</v>
       </c>
       <c r="G71" t="s">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="H71" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3336,10 +3407,10 @@
         <v>0.37</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H72" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3362,10 +3433,10 @@
         <v>0.42</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H73" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3388,10 +3459,10 @@
         <v>0.39</v>
       </c>
       <c r="G74" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H74" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3414,10 +3485,10 @@
         <v>0.41</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H75" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3440,10 +3511,10 @@
         <v>0.53</v>
       </c>
       <c r="G76" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H76" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3466,10 +3537,10 @@
         <v>0.47</v>
       </c>
       <c r="G77" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3492,10 +3563,10 @@
         <v>0.43</v>
       </c>
       <c r="G78" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H78" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3518,10 +3589,10 @@
         <v>0.46</v>
       </c>
       <c r="G79" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H79" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3544,10 +3615,10 @@
         <v>0.72</v>
       </c>
       <c r="G80" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H80" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3570,10 +3641,10 @@
         <v>0.74</v>
       </c>
       <c r="G81" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H81" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3596,10 +3667,10 @@
         <v>0.78</v>
       </c>
       <c r="G82" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H82" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3622,10 +3693,10 @@
         <v>0.69</v>
       </c>
       <c r="G83" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H83" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3648,10 +3719,10 @@
         <v>0.67</v>
       </c>
       <c r="G84" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H84" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3674,10 +3745,10 @@
         <v>0.73</v>
       </c>
       <c r="G85" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H85" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3696,11 +3767,14 @@
       <c r="E87" t="s">
         <v>20</v>
       </c>
+      <c r="F87" s="2">
+        <v>0.09</v>
+      </c>
       <c r="G87" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H87" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3719,11 +3793,14 @@
       <c r="E88" t="s">
         <v>20</v>
       </c>
+      <c r="F88" s="2">
+        <v>0.08</v>
+      </c>
       <c r="G88" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H88" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3742,11 +3819,14 @@
       <c r="E89" t="s">
         <v>20</v>
       </c>
+      <c r="F89" s="2">
+        <v>0.09</v>
+      </c>
       <c r="G89" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H89" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3765,11 +3845,14 @@
       <c r="E90" t="s">
         <v>20</v>
       </c>
+      <c r="F90" s="2">
+        <v>0.08</v>
+      </c>
       <c r="G90" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H90" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3788,11 +3871,14 @@
       <c r="E91" t="s">
         <v>20</v>
       </c>
+      <c r="F91" s="2">
+        <v>0.08</v>
+      </c>
       <c r="G91" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H91" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3805,17 +3891,20 @@
       <c r="C92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>18</v>
+      <c r="D92" t="s">
+        <v>296</v>
       </c>
       <c r="E92" t="s">
         <v>21</v>
       </c>
+      <c r="F92" s="2">
+        <v>0.91</v>
+      </c>
       <c r="G92" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="H92" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3828,17 +3917,20 @@
       <c r="C93" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>18</v>
+      <c r="D93" t="s">
+        <v>296</v>
       </c>
       <c r="E93" t="s">
         <v>21</v>
       </c>
+      <c r="F93" s="2">
+        <v>0.93</v>
+      </c>
       <c r="G93" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="H93" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3851,17 +3943,20 @@
       <c r="C94" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>18</v>
+      <c r="D94" t="s">
+        <v>296</v>
       </c>
       <c r="E94" t="s">
         <v>21</v>
       </c>
+      <c r="F94" s="2">
+        <v>0.89</v>
+      </c>
       <c r="G94" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="H94" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3874,17 +3969,20 @@
       <c r="C95" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>18</v>
+      <c r="D95" t="s">
+        <v>296</v>
       </c>
       <c r="E95" t="s">
         <v>21</v>
       </c>
+      <c r="F95" s="2">
+        <v>0.9</v>
+      </c>
       <c r="G95" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="H95" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3897,17 +3995,20 @@
       <c r="C96" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>18</v>
+      <c r="D96" t="s">
+        <v>296</v>
       </c>
       <c r="E96" t="s">
         <v>21</v>
       </c>
+      <c r="F96" s="2">
+        <v>0.93</v>
+      </c>
       <c r="G96" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="H96" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3920,17 +4021,20 @@
       <c r="C97" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>18</v>
+      <c r="D97" t="s">
+        <v>296</v>
       </c>
       <c r="E97" t="s">
         <v>21</v>
       </c>
+      <c r="F97" s="2">
+        <v>0.92</v>
+      </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="H97" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3943,17 +4047,20 @@
       <c r="C98" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>18</v>
+      <c r="D98" t="s">
+        <v>296</v>
       </c>
       <c r="E98" t="s">
         <v>21</v>
       </c>
+      <c r="F98" s="2">
+        <v>0.82</v>
+      </c>
       <c r="G98" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="H98" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3966,17 +4073,20 @@
       <c r="C99" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>18</v>
+      <c r="D99" t="s">
+        <v>296</v>
       </c>
       <c r="E99" t="s">
         <v>21</v>
       </c>
+      <c r="F99" s="2">
+        <v>0.86</v>
+      </c>
       <c r="G99" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="H99" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3989,17 +4099,20 @@
       <c r="C100" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>18</v>
+      <c r="D100" t="s">
+        <v>296</v>
       </c>
       <c r="E100" t="s">
         <v>21</v>
       </c>
+      <c r="F100" s="2">
+        <v>0.85</v>
+      </c>
       <c r="G100" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="H100" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4012,17 +4125,20 @@
       <c r="C101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>18</v>
+      <c r="D101" t="s">
+        <v>296</v>
       </c>
       <c r="E101" t="s">
         <v>21</v>
       </c>
+      <c r="F101" s="2">
+        <v>0.88</v>
+      </c>
       <c r="G101" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="H101" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4035,17 +4151,20 @@
       <c r="C102" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>18</v>
+      <c r="D102" t="s">
+        <v>296</v>
       </c>
       <c r="E102" t="s">
         <v>21</v>
       </c>
+      <c r="F102" s="2">
+        <v>0.79</v>
+      </c>
       <c r="G102" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="H102" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4058,17 +4177,20 @@
       <c r="C103" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>18</v>
+      <c r="D103" t="s">
+        <v>296</v>
       </c>
       <c r="E103" t="s">
         <v>21</v>
       </c>
+      <c r="F103" s="2">
+        <v>0.81</v>
+      </c>
       <c r="G103" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="H103" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4081,17 +4203,20 @@
       <c r="C104" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>18</v>
+      <c r="D104" t="s">
+        <v>296</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
       </c>
+      <c r="F104" s="2">
+        <v>0.84</v>
+      </c>
       <c r="G104" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H104" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4104,17 +4229,20 @@
       <c r="C105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>18</v>
+      <c r="D105" t="s">
+        <v>296</v>
       </c>
       <c r="E105" t="s">
         <v>21</v>
       </c>
+      <c r="F105" s="2">
+        <v>0.86</v>
+      </c>
       <c r="G105" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H105" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4127,17 +4255,20 @@
       <c r="C106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>18</v>
+      <c r="D106" t="s">
+        <v>296</v>
       </c>
       <c r="E106" t="s">
         <v>21</v>
       </c>
+      <c r="F106" s="2">
+        <v>0.82</v>
+      </c>
       <c r="G106" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H106" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4150,17 +4281,20 @@
       <c r="C107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>18</v>
+      <c r="D107" t="s">
+        <v>296</v>
       </c>
       <c r="E107" t="s">
         <v>21</v>
       </c>
+      <c r="F107" s="2">
+        <v>0.89</v>
+      </c>
       <c r="G107" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H107" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4173,17 +4307,20 @@
       <c r="C108" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>18</v>
+      <c r="D108" t="s">
+        <v>296</v>
       </c>
       <c r="E108" t="s">
         <v>21</v>
       </c>
+      <c r="F108" s="2">
+        <v>0.79</v>
+      </c>
       <c r="G108" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H108" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4196,17 +4333,20 @@
       <c r="C109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>18</v>
+      <c r="D109" t="s">
+        <v>296</v>
       </c>
       <c r="E109" t="s">
         <v>21</v>
       </c>
+      <c r="F109" s="2">
+        <v>0.82</v>
+      </c>
       <c r="G109" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="H109" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4219,17 +4359,20 @@
       <c r="C110" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>18</v>
+      <c r="D110" t="s">
+        <v>296</v>
       </c>
       <c r="E110" t="s">
         <v>21</v>
       </c>
+      <c r="F110" s="2">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G110" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="H110" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4242,17 +4385,20 @@
       <c r="C111" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>18</v>
+      <c r="D111" t="s">
+        <v>296</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
       </c>
+      <c r="F111" s="2">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="G111" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="H111" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4265,17 +4411,20 @@
       <c r="C112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>18</v>
+      <c r="D112" t="s">
+        <v>296</v>
       </c>
       <c r="E112" t="s">
         <v>21</v>
       </c>
+      <c r="F112" s="2">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="G112" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="H112" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4288,17 +4437,20 @@
       <c r="C113" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>18</v>
+      <c r="D113" t="s">
+        <v>296</v>
       </c>
       <c r="E113" t="s">
         <v>21</v>
       </c>
+      <c r="F113" s="2">
+        <v>0.53</v>
+      </c>
       <c r="G113" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="H113" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4311,17 +4463,20 @@
       <c r="C114" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>18</v>
+      <c r="D114" t="s">
+        <v>296</v>
       </c>
       <c r="E114" t="s">
         <v>21</v>
       </c>
+      <c r="F114" s="2">
+        <v>0.59</v>
+      </c>
       <c r="G114" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="H114" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4334,17 +4489,20 @@
       <c r="C115" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>18</v>
+      <c r="D115" t="s">
+        <v>296</v>
       </c>
       <c r="E115" t="s">
         <v>21</v>
       </c>
+      <c r="F115" s="2">
+        <v>0.61</v>
+      </c>
       <c r="G115" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="H115" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4363,11 +4521,14 @@
       <c r="E116" t="s">
         <v>20</v>
       </c>
+      <c r="F116" s="2">
+        <v>0.19</v>
+      </c>
       <c r="G116" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H116" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4386,11 +4547,14 @@
       <c r="E117" t="s">
         <v>20</v>
       </c>
+      <c r="F117" s="2">
+        <v>0.23</v>
+      </c>
       <c r="G117" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H117" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4409,11 +4573,14 @@
       <c r="E118" t="s">
         <v>20</v>
       </c>
+      <c r="F118" s="2">
+        <v>0.21</v>
+      </c>
       <c r="G118" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H118" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4432,11 +4599,14 @@
       <c r="E119" t="s">
         <v>20</v>
       </c>
+      <c r="F119" s="2">
+        <v>0.17</v>
+      </c>
       <c r="G119" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H119" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4455,11 +4625,14 @@
       <c r="E120" t="s">
         <v>20</v>
       </c>
+      <c r="F120" s="2">
+        <v>0.26</v>
+      </c>
       <c r="G120" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H120" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4478,11 +4651,14 @@
       <c r="E121" t="s">
         <v>20</v>
       </c>
+      <c r="F121" s="2">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="G121" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H121" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4501,11 +4677,14 @@
       <c r="E122" t="s">
         <v>20</v>
       </c>
+      <c r="F122" s="2">
+        <v>0.21</v>
+      </c>
       <c r="G122" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H122" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4524,11 +4703,14 @@
       <c r="E123" t="s">
         <v>20</v>
       </c>
+      <c r="F123" s="2">
+        <v>0.24</v>
+      </c>
       <c r="G123" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H123" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4547,11 +4729,14 @@
       <c r="E124" t="s">
         <v>20</v>
       </c>
+      <c r="F124" s="2">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="G124" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H124" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4564,17 +4749,20 @@
       <c r="C125" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>18</v>
+      <c r="D125" t="s">
+        <v>296</v>
       </c>
       <c r="E125" t="s">
         <v>21</v>
       </c>
+      <c r="F125" s="2">
+        <v>1.35</v>
+      </c>
       <c r="G125" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H125" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4587,17 +4775,20 @@
       <c r="C126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>18</v>
+      <c r="D126" t="s">
+        <v>296</v>
       </c>
       <c r="E126" t="s">
         <v>21</v>
       </c>
+      <c r="F126" s="2">
+        <v>1.32</v>
+      </c>
       <c r="G126" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H126" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4610,17 +4801,20 @@
       <c r="C127" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>18</v>
+      <c r="D127" t="s">
+        <v>296</v>
       </c>
       <c r="E127" t="s">
         <v>21</v>
       </c>
+      <c r="F127" s="2">
+        <v>1.37</v>
+      </c>
       <c r="G127" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H127" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4633,17 +4827,20 @@
       <c r="C128" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>18</v>
+      <c r="D128" t="s">
+        <v>296</v>
       </c>
       <c r="E128" t="s">
         <v>21</v>
       </c>
+      <c r="F128" s="2">
+        <v>1.31</v>
+      </c>
       <c r="G128" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H128" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4656,17 +4853,20 @@
       <c r="C129" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>18</v>
+      <c r="D129" t="s">
+        <v>296</v>
       </c>
       <c r="E129" t="s">
         <v>21</v>
       </c>
+      <c r="F129" s="2">
+        <v>1.35</v>
+      </c>
       <c r="G129" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H129" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4679,17 +4879,20 @@
       <c r="C130" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>18</v>
+      <c r="D130" t="s">
+        <v>296</v>
       </c>
       <c r="E130" t="s">
         <v>21</v>
       </c>
+      <c r="F130" s="2">
+        <v>1.29</v>
+      </c>
       <c r="G130" t="s">
-        <v>247</v>
+        <v>304</v>
       </c>
       <c r="H130" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4708,8 +4911,14 @@
       <c r="E131" t="s">
         <v>20</v>
       </c>
+      <c r="F131" s="2">
+        <v>0.09</v>
+      </c>
       <c r="G131" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="H131" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4728,8 +4937,14 @@
       <c r="E132" t="s">
         <v>20</v>
       </c>
+      <c r="F132" s="2">
+        <v>0.1</v>
+      </c>
       <c r="G132" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="H132" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4748,8 +4963,14 @@
       <c r="E133" t="s">
         <v>20</v>
       </c>
+      <c r="F133" s="2">
+        <v>0.09</v>
+      </c>
       <c r="G133" t="s">
-        <v>243</v>
+        <v>234</v>
+      </c>
+      <c r="H133" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4768,11 +4989,14 @@
       <c r="E134" t="s">
         <v>20</v>
       </c>
+      <c r="F134" s="2">
+        <v>0.08</v>
+      </c>
       <c r="G134" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H134" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4785,17 +5009,20 @@
       <c r="C135" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>18</v>
+      <c r="D135" t="s">
+        <v>296</v>
       </c>
       <c r="E135" t="s">
         <v>21</v>
       </c>
+      <c r="F135" s="2">
+        <v>0.49</v>
+      </c>
       <c r="G135" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H135" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4808,17 +5035,20 @@
       <c r="C136" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>18</v>
+      <c r="D136" t="s">
+        <v>296</v>
       </c>
       <c r="E136" t="s">
         <v>21</v>
       </c>
+      <c r="F136" s="2">
+        <v>0.51</v>
+      </c>
       <c r="G136" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H136" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4831,17 +5061,20 @@
       <c r="C137" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>18</v>
+      <c r="D137" t="s">
+        <v>296</v>
       </c>
       <c r="E137" t="s">
         <v>21</v>
       </c>
+      <c r="F137" s="2">
+        <v>0.48</v>
+      </c>
       <c r="G137" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H137" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4854,17 +5087,20 @@
       <c r="C138" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>18</v>
+      <c r="D138" t="s">
+        <v>296</v>
       </c>
       <c r="E138" t="s">
         <v>21</v>
       </c>
+      <c r="F138" s="2">
+        <v>0.47</v>
+      </c>
       <c r="G138" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H138" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4877,17 +5113,20 @@
       <c r="C139" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>18</v>
+      <c r="D139" t="s">
+        <v>296</v>
       </c>
       <c r="E139" t="s">
         <v>21</v>
       </c>
+      <c r="F139" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G139" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H139" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4900,17 +5139,20 @@
       <c r="C140" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>18</v>
+      <c r="D140" t="s">
+        <v>296</v>
       </c>
       <c r="E140" t="s">
         <v>21</v>
       </c>
+      <c r="F140" s="2">
+        <v>0.46</v>
+      </c>
       <c r="G140" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="H140" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4923,17 +5165,20 @@
       <c r="C141" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>18</v>
+      <c r="D141" t="s">
+        <v>296</v>
       </c>
       <c r="E141" t="s">
         <v>21</v>
       </c>
+      <c r="F141" s="2">
+        <v>0.68</v>
+      </c>
       <c r="G141" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H141" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4946,17 +5191,20 @@
       <c r="C142" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>18</v>
+      <c r="D142" t="s">
+        <v>296</v>
       </c>
       <c r="E142" t="s">
         <v>21</v>
       </c>
+      <c r="F142" s="2">
+        <v>0.65</v>
+      </c>
       <c r="G142" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H142" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4969,17 +5217,20 @@
       <c r="C143" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>18</v>
+      <c r="D143" t="s">
+        <v>296</v>
       </c>
       <c r="E143" t="s">
         <v>21</v>
       </c>
+      <c r="F143" s="2">
+        <v>0.63</v>
+      </c>
       <c r="G143" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H143" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4992,17 +5243,20 @@
       <c r="C144" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>18</v>
+      <c r="D144" t="s">
+        <v>296</v>
       </c>
       <c r="E144" t="s">
         <v>21</v>
       </c>
+      <c r="F144" s="2">
+        <v>0.69</v>
+      </c>
       <c r="G144" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H144" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5015,17 +5269,20 @@
       <c r="C145" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>18</v>
+      <c r="D145" t="s">
+        <v>296</v>
       </c>
       <c r="E145" t="s">
         <v>21</v>
       </c>
+      <c r="F145" s="2">
+        <v>0.62</v>
+      </c>
       <c r="G145" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H145" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5038,17 +5295,20 @@
       <c r="C146" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>18</v>
+      <c r="D146" t="s">
+        <v>296</v>
       </c>
       <c r="E146" t="s">
         <v>21</v>
       </c>
+      <c r="F146" s="2">
+        <v>0.68</v>
+      </c>
       <c r="G146" t="s">
-        <v>245</v>
+        <v>306</v>
       </c>
       <c r="H146" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5071,10 +5331,10 @@
         <v>0.21</v>
       </c>
       <c r="G148" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H148" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5097,10 +5357,10 @@
         <v>0.19</v>
       </c>
       <c r="G149" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H149" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5113,8 +5373,8 @@
       <c r="C150" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>18</v>
+      <c r="D150" t="s">
+        <v>293</v>
       </c>
       <c r="E150" t="s">
         <v>21</v>
@@ -5123,10 +5383,10 @@
         <v>0.62</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H150" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5139,8 +5399,8 @@
       <c r="C151" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>18</v>
+      <c r="D151" t="s">
+        <v>293</v>
       </c>
       <c r="E151" t="s">
         <v>21</v>
@@ -5149,10 +5409,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G151" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H151" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5165,8 +5425,8 @@
       <c r="C152" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>18</v>
+      <c r="D152" t="s">
+        <v>293</v>
       </c>
       <c r="E152" t="s">
         <v>21</v>
@@ -5175,10 +5435,10 @@
         <v>0.63</v>
       </c>
       <c r="G152" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H152" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5191,8 +5451,8 @@
       <c r="C153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>18</v>
+      <c r="D153" t="s">
+        <v>293</v>
       </c>
       <c r="E153" t="s">
         <v>21</v>
@@ -5201,10 +5461,10 @@
         <v>0.61</v>
       </c>
       <c r="G153" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="H153" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5217,8 +5477,8 @@
       <c r="C154" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>18</v>
+      <c r="D154" t="s">
+        <v>293</v>
       </c>
       <c r="E154" t="s">
         <v>21</v>
@@ -5227,10 +5487,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G154" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H154" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5253,10 +5513,10 @@
         <v>0.92</v>
       </c>
       <c r="G155" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="H155" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5279,10 +5539,10 @@
         <v>0.98</v>
       </c>
       <c r="G156" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="H156" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5295,8 +5555,8 @@
       <c r="C157" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>18</v>
+      <c r="D157" t="s">
+        <v>293</v>
       </c>
       <c r="E157" t="s">
         <v>21</v>
@@ -5305,10 +5565,10 @@
         <v>0.4</v>
       </c>
       <c r="G157" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="H157" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5321,8 +5581,8 @@
       <c r="C158" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>18</v>
+      <c r="D158" t="s">
+        <v>293</v>
       </c>
       <c r="E158" t="s">
         <v>21</v>
@@ -5331,10 +5591,10 @@
         <v>0.51</v>
       </c>
       <c r="G158" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="H158" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5347,8 +5607,8 @@
       <c r="C159" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>18</v>
+      <c r="D159" t="s">
+        <v>293</v>
       </c>
       <c r="E159" t="s">
         <v>21</v>
@@ -5357,10 +5617,10 @@
         <v>0.48</v>
       </c>
       <c r="G159" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="H159" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5374,7 +5634,7 @@
         <v>19</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E160" t="s">
         <v>21</v>
@@ -5383,10 +5643,10 @@
         <v>0.39</v>
       </c>
       <c r="G160" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="H160" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5400,7 +5660,7 @@
         <v>19</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E161" t="s">
         <v>21</v>
@@ -5409,10 +5669,10 @@
         <v>0.63</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5426,7 +5686,7 @@
         <v>19</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E162" t="s">
         <v>21</v>
@@ -5435,10 +5695,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5452,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E163" t="s">
         <v>21</v>
@@ -5461,10 +5721,10 @@
         <v>0.61</v>
       </c>
       <c r="G163" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="H163" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5478,7 +5738,7 @@
         <v>19</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E164" t="s">
         <v>21</v>
@@ -5487,10 +5747,10 @@
         <v>0.59</v>
       </c>
       <c r="G164" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="H164" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5504,7 +5764,7 @@
         <v>19</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>18</v>
+        <v>293</v>
       </c>
       <c r="E165" t="s">
         <v>21</v>
@@ -5513,10 +5773,10 @@
         <v>0.63</v>
       </c>
       <c r="G165" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="H165" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5539,10 +5799,10 @@
         <v>0.12</v>
       </c>
       <c r="G166" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="H166" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5555,8 +5815,8 @@
       <c r="C167" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>18</v>
+      <c r="D167" t="s">
+        <v>296</v>
       </c>
       <c r="E167" t="s">
         <v>21</v>
@@ -5565,10 +5825,10 @@
         <v>2.34</v>
       </c>
       <c r="G167" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="H167" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5591,10 +5851,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G168" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="H168" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5617,10 +5877,10 @@
         <v>2.02</v>
       </c>
       <c r="G169" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H169" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5643,10 +5903,10 @@
         <v>8.4</v>
       </c>
       <c r="G170" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H170" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5669,10 +5929,10 @@
         <v>0.87</v>
       </c>
       <c r="G171" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H171" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5695,10 +5955,10 @@
         <v>0.92</v>
       </c>
       <c r="G172" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H172" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5721,10 +5981,10 @@
         <v>0.91</v>
       </c>
       <c r="G173" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H173" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5747,10 +6007,10 @@
         <v>0.85</v>
       </c>
       <c r="G174" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H174" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5773,10 +6033,10 @@
         <v>0.87</v>
       </c>
       <c r="G175" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="H175" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5799,10 +6059,10 @@
         <v>3.58</v>
       </c>
       <c r="G176" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="H176" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5815,8 +6075,8 @@
       <c r="C178" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>18</v>
+      <c r="D178" t="s">
+        <v>296</v>
       </c>
       <c r="E178" t="s">
         <v>21</v>
@@ -5825,10 +6085,10 @@
         <v>2.34</v>
       </c>
       <c r="G178" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="H178" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5841,8 +6101,8 @@
       <c r="C179" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>18</v>
+      <c r="D179" t="s">
+        <v>296</v>
       </c>
       <c r="E179" t="s">
         <v>21</v>
@@ -5851,10 +6111,10 @@
         <v>2.67</v>
       </c>
       <c r="G179" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="H179" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5867,8 +6127,8 @@
       <c r="C180" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>18</v>
+      <c r="D180" t="s">
+        <v>296</v>
       </c>
       <c r="E180" t="s">
         <v>21</v>
@@ -5877,10 +6137,10 @@
         <v>0.98</v>
       </c>
       <c r="G180" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="H180" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5893,8 +6153,8 @@
       <c r="C181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>18</v>
+      <c r="D181" t="s">
+        <v>296</v>
       </c>
       <c r="E181" t="s">
         <v>21</v>
@@ -5903,10 +6163,10 @@
         <v>0.92</v>
       </c>
       <c r="G181" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="H181" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5929,10 +6189,10 @@
         <v>25.65</v>
       </c>
       <c r="G182" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="H182" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5945,8 +6205,8 @@
       <c r="C183" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>18</v>
+      <c r="D183" t="s">
+        <v>296</v>
       </c>
       <c r="E183" t="s">
         <v>21</v>
@@ -5955,10 +6215,10 @@
         <v>3.96</v>
       </c>
       <c r="G183" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="H183" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5971,8 +6231,8 @@
       <c r="C184" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>18</v>
+      <c r="D184" t="s">
+        <v>296</v>
       </c>
       <c r="E184" t="s">
         <v>21</v>
@@ -5981,10 +6241,10 @@
         <v>3.67</v>
       </c>
       <c r="G184" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="H184" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6007,10 +6267,10 @@
         <v>29.78</v>
       </c>
       <c r="G185" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="H185" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6033,10 +6293,10 @@
         <v>3.45</v>
       </c>
       <c r="G186" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="H186" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6059,10 +6319,10 @@
         <v>3.97</v>
       </c>
       <c r="G187" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="H187" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
